--- a/data/financial_statements/sofp/FCX.xlsx
+++ b/data/financial_statements/sofp/FCX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,1445 +602,1478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>8146000000</v>
+      </c>
+      <c r="C2">
         <v>8578000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>9492000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8338000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8068000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7672000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6313000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4580000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3657000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2403000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1465000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1602000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2020000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2247000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2623000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2833000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4217000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4556000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3859000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3702000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4526000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4957000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4667000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4001000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4245000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1108000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>352000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>331000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>177000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>338000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>466000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>549000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>464000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>658000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1458000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1342000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1985000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2219000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3294000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>9595000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1795000000</v>
+      </c>
+      <c r="C3">
         <v>1329000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1412000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1981000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1742000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1522000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1678000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1770000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1412000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1357000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1363000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1106000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1167000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>994000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>970000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1191000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1322000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1290000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1302000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1444000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1665000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1546000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1434000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1399000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2005000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1750000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1712000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2141000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>2129000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1902000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>2272000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2396000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>2563000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2307000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2758000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2377000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>2562000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>2229000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1879000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1769000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>5180000000</v>
+      </c>
+      <c r="C4">
         <v>4819000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4670000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4454000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4497000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4120000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4218000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4145000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3893000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3892000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3810000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3854000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4073000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4434000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4377000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4461000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4503000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4047000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4176000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3885000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4149000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3857000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3642000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>3763000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3642000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3685000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3744000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>4528000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>4075000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5345000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>5431000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>5238000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>5361000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>5489000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>5370000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5220000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>5018000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4853000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>4946000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>4809000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>492000000</v>
+      </c>
+      <c r="C5">
         <v>647000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>608000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>529000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>523000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>477000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>390000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>361000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>341000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>419000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>517000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>795000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>655000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>672000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>760000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>560000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>422000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1028000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1006000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1075000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>286000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>790000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>674000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>604000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>543000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>4962000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>4892000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>233000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1081000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>570000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>528000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>671000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>657000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>577000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>668000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>491000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>407000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>305000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>459000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>410000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>15613000000</v>
+      </c>
+      <c r="C6">
         <v>15373000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>16182000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>15302000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>14830000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>13791000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12599000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10856000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9303000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>8071000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7155000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7357000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7915000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>8347000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>8730000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>9045000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10464000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>10921000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>10343000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>10106000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>10626000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>11150000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10417000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>9767000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>10435000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>11505000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>10700000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7233000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>7462000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>8155000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>8697000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>8854000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>9045000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>9031000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>10254000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>9430000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>9972000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>9606000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>10578000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>16583000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>32627000000</v>
+      </c>
+      <c r="C7">
         <v>31814000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>31200000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>30708000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30345000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>30102000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29836000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>29775000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>29818000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>29911000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>29936000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>29899000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>29584000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>29330000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>28841000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>28497000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>28010000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>23013000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>22923000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>22792000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>22994000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>22914000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>23067000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>23117000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>23219000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>23415000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>23609000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>27376000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>23986000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>27355000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>27095000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>26595000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>26220000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>26304000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>25407000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>24729000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>24042000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>46647000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>46214000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>21689000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>134000000</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C8">
         <v>134000000</v>
       </c>
       <c r="D8">
+        <v>134000000</v>
+      </c>
+      <c r="E8">
         <v>133000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>441000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>133000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>141000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>150000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>508000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>149000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>132000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>152000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>499000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
         <v>412000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>401000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>402000000</v>
-      </c>
-      <c r="AH9">
-        <v>1717000000</v>
       </c>
       <c r="AI9">
         <v>1717000000</v>
       </c>
       <c r="AJ9">
-        <v>1916000000</v>
+        <v>1717000000</v>
       </c>
       <c r="AK9">
         <v>1916000000</v>
       </c>
       <c r="AL9">
+        <v>1916000000</v>
+      </c>
+      <c r="AM9">
         <v>1932000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1904000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>1601000000</v>
+      </c>
+      <c r="C10">
         <v>1546000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1501000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1445000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1460000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1574000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1528000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1537000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1560000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1654000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1693000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1691000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1885000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1966000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2168000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2174000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2172000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2460000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2391000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2352000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2273000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1790000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1957000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>2010000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1956000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2134000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2208000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2288000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>6373000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1977000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1978000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1977000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1956000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2018000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2287000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1959000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1798000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2109000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2269000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2235000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>35480000000</v>
+      </c>
+      <c r="C11">
         <v>34554000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>33931000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>33530000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>33192000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>33126000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>32837000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>32787000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>32841000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>33028000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>33075000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>32862000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>32894000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>32596000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>32356000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>32014000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>31752000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>26828000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>26685000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>26531000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>26676000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>26177000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>26626000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>26809000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>26882000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>29895000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>30596000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>35431000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>39115000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>42228000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>45311000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>47211000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>49629000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>54945000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>53755000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>54413000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>53501000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>52992000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>52579000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>26005000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>51093000000</v>
+      </c>
+      <c r="C12">
         <v>49927000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>50113000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>48832000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>48022000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>46917000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>45436000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>43643000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>42144000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>41099000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>40230000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>40219000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>40809000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>40943000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>41086000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>41059000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>42216000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>37749000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>37028000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>36637000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>37302000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>37327000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>37043000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>36576000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>37317000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>41400000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>41296000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>42664000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>46577000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>50383000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>54008000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>56065000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>58674000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>63976000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>64009000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>63843000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>63473000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>62598000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>63157000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>42588000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>4027000000</v>
+      </c>
+      <c r="C13">
         <v>3947000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3853000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3163000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3495000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2949000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3106000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2866000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2708000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2533000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2471000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2465000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2576000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2755000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2721000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2599000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2625000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2396000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2420000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2209000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2497000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2098000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1880000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1780000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2393000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>2347000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2569000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>2987000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>3232000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>3445000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>3376000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>3111000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3653000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>3784000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>3950000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>3543000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>3708000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>3698000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>3771000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>2892000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>217000000</v>
+      </c>
+      <c r="C14">
         <v>216000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>217000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>218000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>220000000</v>
-      </c>
-      <c r="F14">
-        <v>111000000</v>
       </c>
       <c r="G14">
         <v>111000000</v>
@@ -1934,8 +2081,8 @@
       <c r="H14">
         <v>111000000</v>
       </c>
-      <c r="M14">
-        <v>73000000</v>
+      <c r="I14">
+        <v>111000000</v>
       </c>
       <c r="N14">
         <v>73000000</v>
@@ -1956,589 +2103,604 @@
         <v>73000000</v>
       </c>
       <c r="T14">
+        <v>73000000</v>
+      </c>
+      <c r="U14">
         <v>72000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>65000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>175000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>60000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>335000000</v>
-      </c>
-      <c r="AH14">
-        <v>334000000</v>
       </c>
       <c r="AI14">
         <v>334000000</v>
       </c>
       <c r="AJ14">
-        <v>333000000</v>
+        <v>334000000</v>
       </c>
       <c r="AK14">
         <v>333000000</v>
       </c>
       <c r="AL14">
+        <v>333000000</v>
+      </c>
+      <c r="AM14">
         <v>332000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1368000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
         <v>1392000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>1037000000</v>
+      </c>
+      <c r="C16">
         <v>1032000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1038000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1365000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>372000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>897000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1057000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>656000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>34000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>47000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>90000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>245000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>5000000</v>
-      </c>
-      <c r="N16">
-        <v>4000000</v>
       </c>
       <c r="O16">
         <v>4000000</v>
       </c>
       <c r="P16">
+        <v>4000000</v>
+      </c>
+      <c r="Q16">
         <v>3000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>17000000</v>
-      </c>
-      <c r="R16">
-        <v>4000000</v>
       </c>
       <c r="S16">
         <v>4000000</v>
       </c>
       <c r="T16">
+        <v>4000000</v>
+      </c>
+      <c r="U16">
         <v>483000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1414000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2215000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2216000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2228000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1232000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>802000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>770000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1139000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>649000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>906000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>791000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>558000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>478000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1762000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>2784000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1091000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>312000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>70000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>73000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>4000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>744000000</v>
+      </c>
+      <c r="C17">
         <v>439000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>507000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1392000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1541000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1237000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>919000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>647000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>324000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>119000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>47000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>128000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>119000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>61000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>63000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>150000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>165000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>645000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>569000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>749000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>583000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>464000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>196000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>190000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>66000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>161000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>55000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>30000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>23000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>75000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>67000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>364000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>410000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>153000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>240000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>162000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>184000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>141000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>114000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>125000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>320000000</v>
+      </c>
+      <c r="C18">
         <v>365000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>317000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>316000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>264000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>329000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>334000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>331000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>351000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>397000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>298000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>305000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>436000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>488000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>425000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>422000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>449000000</v>
-      </c>
-      <c r="R18">
-        <v>733000000</v>
       </c>
       <c r="S18">
         <v>733000000</v>
       </c>
       <c r="T18">
+        <v>733000000</v>
+      </c>
+      <c r="U18">
         <v>831000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>420000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>740000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>652000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>644000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>574000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1178000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1146000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>270000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>403000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>336000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>330000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>317000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>296000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>310000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>250000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>254000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>236000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>257000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>284000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>254000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>6345000000</v>
+      </c>
+      <c r="C19">
         <v>5999000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>5932000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6454000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5892000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5523000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5527000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4611000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3417000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3096000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2906000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>3143000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3209000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3381000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3286000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3247000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>3329000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>3851000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>3799000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>4344000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>4914000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>5517000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>4944000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>4842000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>4265000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>4488000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>4540000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>4426000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>4307000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>4827000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>4739000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>4410000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>5172000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>6343000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>7558000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>5383000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>4773000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>4498000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>5610000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>3275000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>9583000000</v>
+      </c>
+      <c r="C20">
         <v>9658000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>10054000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8256000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>9078000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>8768000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>8638000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>9153000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9677000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>9983000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>9824000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>9829000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>9821000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>9915000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>9912000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>9902000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>11124000000</v>
-      </c>
-      <c r="R20">
-        <v>11123000000</v>
       </c>
       <c r="S20">
         <v>11123000000</v>
@@ -2547,726 +2709,744 @@
         <v>11123000000</v>
       </c>
       <c r="U20">
+        <v>11123000000</v>
+      </c>
+      <c r="V20">
         <v>11815000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>12567000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>13138000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>13135000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>14795000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>18180000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>18549000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>19638000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>19675000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>19792000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>20111000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>19754000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>18371000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>17975000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>17512000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>19759000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>20394000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>21053000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>21142000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>10088000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>4269000000</v>
+      </c>
+      <c r="C21">
         <v>4316000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>4297000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4282000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>4234000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4500000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4486000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4446000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4408000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>4325000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4180000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4087000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4210000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4245000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4055000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4067000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>4032000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3839000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3702000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>3642000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>3663000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3771000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>3870000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>3786000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>3768000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>3549000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>3758000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>4442000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>3567000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>4363000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>4870000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>5625000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>6398000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>7559000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>7451000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>7504000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>7410000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>6922000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>6840000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>3580000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA22">
         <v>774000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>771000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>767000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>764000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>761000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>757000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>755000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>751000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>749000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>745000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>743000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>716000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>720000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>782000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>6025000000</v>
+      </c>
+      <c r="C23">
         <v>5773000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>5783000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5798000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5799000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5595000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5850000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5860000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5974000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>6133000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>6165000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>6197000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>6121000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>5860000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>6016000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>6002000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>5839000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>5482000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>5562000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>5602000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>5614000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>5242000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>5098000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>5226000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>5232000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>5343000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>5359000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>5421000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>6220000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>5435000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>5476000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>5490000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>5508000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>5384000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>5076000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>4971000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>4949000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>4851000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>4916000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3796000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>19877000000</v>
+      </c>
+      <c r="C24">
         <v>19747000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>20134000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>18336000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>19111000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>18863000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>18974000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>19459000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>20059000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>20441000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>20169000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>20113000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>20152000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>20020000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>19983000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>19971000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>20995000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>20444000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>20387000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>20367000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>21092000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>21580000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>22106000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>22147000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>23795000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>27846000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>28437000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>30268000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>30226000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>30351000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>31214000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>31624000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>31028000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>31667000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>30784000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>32977000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>33469000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>33546000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>33680000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>17464000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>26222000000</v>
+      </c>
+      <c r="C25">
         <v>25746000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>26066000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>24790000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>25003000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>24386000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>24501000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>24070000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>23476000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>23537000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>23075000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>23256000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>23361000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>23401000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>23269000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>23218000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>24324000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>24295000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>24186000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>24711000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>26006000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>27097000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>27050000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>26989000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>28060000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>32334000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>32977000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>34694000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>34533000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>35178000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>35953000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>36034000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>36200000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>38010000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>38342000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>38360000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>38242000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>38044000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>39290000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>20739000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>25322000000</v>
+      </c>
+      <c r="C26">
         <v>25483000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>25661000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>25835000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>25875000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>26023000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>26084000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>26080000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>26037000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>25934000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>25905000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>25875000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>25830000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>25880000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>25949000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>25963000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>26013000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>26603000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>26667000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>26729000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>26751000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>26743000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>26734000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>26725000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>26690000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>25601000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>25105000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>24333000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>24283000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>23335000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>22330000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>22307000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>22281000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>22248000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>22221000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>22192000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>22161000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>22092000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>22072000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>19163000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>161000000</v>
@@ -3278,7 +3458,7 @@
         <v>161000000</v>
       </c>
       <c r="E27">
-        <v>160000000</v>
+        <v>161000000</v>
       </c>
       <c r="F27">
         <v>160000000</v>
@@ -3290,10 +3470,10 @@
         <v>160000000</v>
       </c>
       <c r="I27">
+        <v>160000000</v>
+      </c>
+      <c r="J27">
         <v>159000000</v>
-      </c>
-      <c r="J27">
-        <v>158000000</v>
       </c>
       <c r="K27">
         <v>158000000</v>
@@ -3338,25 +3518,25 @@
         <v>158000000</v>
       </c>
       <c r="Y27">
+        <v>158000000</v>
+      </c>
+      <c r="Z27">
         <v>157000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>149000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>145000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>138000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>137000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>127000000</v>
-      </c>
-      <c r="AE27">
-        <v>117000000</v>
       </c>
       <c r="AF27">
         <v>117000000</v>
@@ -3383,149 +3563,155 @@
         <v>117000000</v>
       </c>
       <c r="AN27">
+        <v>117000000</v>
+      </c>
+      <c r="AO27">
         <v>107000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-3907000000</v>
+      </c>
+      <c r="C28">
         <v>-4604000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-5008000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-5848000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-7375000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-8481000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-9880000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-10963000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-11681000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-12389000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-12718000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-12771000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-12280000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-12289000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-12082000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-12010000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-12041000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-12526000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-13161000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-14030000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-14722000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-15763000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-16043000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-16311000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-16540000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-16832000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-17049000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-16570000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-12387000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-8305000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-4417000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-2398000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>128000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>3306000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>3081000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2926000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>2742000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>2361000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1865000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>2750000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>5701000000</v>
       </c>
       <c r="C29">
+        <v>5701000000</v>
+      </c>
+      <c r="D29">
         <v>5539000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>4895000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>4292000000</v>
-      </c>
-      <c r="F29">
-        <v>3777000000</v>
       </c>
       <c r="G29">
         <v>3777000000</v>
@@ -3534,10 +3720,10 @@
         <v>3777000000</v>
       </c>
       <c r="I29">
+        <v>3777000000</v>
+      </c>
+      <c r="J29">
         <v>3758000000</v>
-      </c>
-      <c r="J29">
-        <v>3739000000</v>
       </c>
       <c r="K29">
         <v>3739000000</v>
@@ -3546,22 +3732,22 @@
         <v>3739000000</v>
       </c>
       <c r="M29">
+        <v>3739000000</v>
+      </c>
+      <c r="N29">
         <v>3734000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3735000000</v>
-      </c>
-      <c r="O29">
-        <v>3734000000</v>
       </c>
       <c r="P29">
         <v>3734000000</v>
       </c>
       <c r="Q29">
+        <v>3734000000</v>
+      </c>
+      <c r="R29">
         <v>3727000000</v>
-      </c>
-      <c r="R29">
-        <v>3726000000</v>
       </c>
       <c r="S29">
         <v>3726000000</v>
@@ -3570,31 +3756,31 @@
         <v>3726000000</v>
       </c>
       <c r="U29">
+        <v>3726000000</v>
+      </c>
+      <c r="V29">
         <v>3723000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>3722000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>3720000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>3717000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>3708000000</v>
-      </c>
-      <c r="Z29">
-        <v>3710000000</v>
       </c>
       <c r="AA29">
         <v>3710000000</v>
       </c>
       <c r="AB29">
+        <v>3710000000</v>
+      </c>
+      <c r="AC29">
         <v>3706000000</v>
-      </c>
-      <c r="AC29">
-        <v>3702000000</v>
       </c>
       <c r="AD29">
         <v>3702000000</v>
@@ -3603,22 +3789,22 @@
         <v>3702000000</v>
       </c>
       <c r="AF29">
+        <v>3702000000</v>
+      </c>
+      <c r="AG29">
         <v>3701000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>3695000000</v>
-      </c>
-      <c r="AH29">
-        <v>3686000000</v>
       </c>
       <c r="AI29">
         <v>3686000000</v>
       </c>
       <c r="AJ29">
+        <v>3686000000</v>
+      </c>
+      <c r="AK29">
         <v>3683000000</v>
-      </c>
-      <c r="AK29">
-        <v>3681000000</v>
       </c>
       <c r="AL29">
         <v>3681000000</v>
@@ -3627,15 +3813,15 @@
         <v>3681000000</v>
       </c>
       <c r="AN29">
+        <v>3681000000</v>
+      </c>
+      <c r="AO29">
         <v>3580000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -3643,7 +3829,7 @@
       <c r="AB30">
         <v>0</v>
       </c>
-      <c r="AD30">
+      <c r="AC30">
         <v>0</v>
       </c>
       <c r="AE30">
@@ -3652,7 +3838,7 @@
       <c r="AF30">
         <v>0</v>
       </c>
-      <c r="AH30">
+      <c r="AG30">
         <v>0</v>
       </c>
       <c r="AI30">
@@ -3661,7 +3847,7 @@
       <c r="AJ30">
         <v>0</v>
       </c>
-      <c r="AL30">
+      <c r="AK30">
         <v>0</v>
       </c>
       <c r="AM30">
@@ -3670,412 +3856,421 @@
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>24871000000</v>
+      </c>
+      <c r="C31">
         <v>24181000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>24047000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>24042000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>23019000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>22531000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>20935000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>19573000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>18668000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>17562000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>17155000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>16963000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>17448000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>17542000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>17817000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>17841000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>17892000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>13454000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>12842000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>11926000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>11296000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>10230000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>9993000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>9587000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>9257000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>9066000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>8319000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>7970000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>12044000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>15205000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>18055000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>20031000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>22474000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>25966000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>25667000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>25483000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>25231000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>24554000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>23867000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>21849000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>24871000000</v>
+      </c>
+      <c r="C32">
         <v>24181000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>24047000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>24042000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>23019000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>22531000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>20935000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>19573000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>18668000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>17562000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>17155000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>16963000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>17448000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>17542000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>17817000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>17841000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>17892000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>13454000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>12842000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>11926000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>11296000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>10230000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>9993000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>9587000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>9257000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>9066000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>8319000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>7970000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>12044000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>15205000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>18055000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>20031000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>22474000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>25966000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>25667000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>25483000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>25231000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>24554000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>23867000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>21849000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>51093000000</v>
+      </c>
+      <c r="C33">
         <v>49927000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>50113000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>48832000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>48022000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>46917000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>45436000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>43643000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>42144000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>41099000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>40230000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>40219000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>40809000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>40943000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>41086000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>41059000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>42216000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>37749000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>37028000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>36637000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>37302000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>37327000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>37043000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>36576000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>37317000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>41400000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>41296000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>42664000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>46577000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>50383000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>54008000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>56065000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>58674000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>63976000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>64009000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>63843000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>63473000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>62598000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>63157000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>42588000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>1429000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1435000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1452000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1457000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1601000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1468000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1464000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1458000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1453000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1452000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1451971000</v>
-      </c>
-      <c r="M34">
-        <v>1451000000</v>
       </c>
       <c r="N34">
         <v>1451000000</v>
@@ -4087,7 +4282,7 @@
         <v>1451000000</v>
       </c>
       <c r="Q34">
-        <v>1449000000</v>
+        <v>1451000000</v>
       </c>
       <c r="R34">
         <v>1449000000</v>
@@ -4099,55 +4294,55 @@
         <v>1449000000</v>
       </c>
       <c r="U34">
-        <v>1448000000</v>
+        <v>1449000000</v>
       </c>
       <c r="V34">
         <v>1448000000</v>
       </c>
       <c r="W34">
-        <v>1447000000</v>
+        <v>1448000000</v>
       </c>
       <c r="X34">
         <v>1447000000</v>
       </c>
       <c r="Y34">
+        <v>1447000000</v>
+      </c>
+      <c r="Z34">
         <v>1445000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>1362000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>1318000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>1252000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>1246000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>1138000000</v>
-      </c>
-      <c r="AE34">
-        <v>1040000000</v>
       </c>
       <c r="AF34">
         <v>1040000000</v>
       </c>
       <c r="AG34">
+        <v>1040000000</v>
+      </c>
+      <c r="AH34">
         <v>1039000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>1040000000</v>
-      </c>
-      <c r="AI34">
-        <v>1039000000</v>
       </c>
       <c r="AJ34">
         <v>1039000000</v>
       </c>
       <c r="AK34">
-        <v>1038000000</v>
+        <v>1039000000</v>
       </c>
       <c r="AL34">
         <v>1038000000</v>
@@ -4156,372 +4351,384 @@
         <v>1038000000</v>
       </c>
       <c r="AN34">
+        <v>1038000000</v>
+      </c>
+      <c r="AO34">
         <v>950000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>24871000000</v>
+      </c>
+      <c r="C35">
         <v>24181000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>24047000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>24042000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>23019000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>22531000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>20935000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>19573000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>18668000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>17562000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>17155000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>16963000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>17448000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>17542000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>17817000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>17841000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>17892000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>13454000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>12842000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>11926000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>11296000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>10230000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>9993000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>9587000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>9257000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>9066000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>8319000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>7970000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>12044000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>15205000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>18055000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>20031000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>22474000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>24249000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>23950000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>23567000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>23315000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>22622000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>21963000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>21849000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>2474000000</v>
+      </c>
+      <c r="C36">
         <v>2112000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1600000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1283000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1382000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1993000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3382000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>5229000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>6054000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>7627000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>8449000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>8472000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>7806000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>7672000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>7293000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>7072000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>6924000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>6571000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>7268000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>7904000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>8703000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>9825000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>10687000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>11362000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>11782000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>17874000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>18967000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>20446000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>20147000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>20360000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>20436000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>19763000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>18385000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>19079000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>18838000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>19508000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>18721000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>18904000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>17921000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>497000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>10620000000</v>
+      </c>
+      <c r="C37">
         <v>10690000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>11092000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>9621000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>9450000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>9665000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>9695000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>9809000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>9711000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>10030000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>9914000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>10074000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>9826000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>9919000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>9916000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>9905000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>11141000000</v>
-      </c>
-      <c r="R37">
-        <v>11127000000</v>
       </c>
       <c r="S37">
         <v>11127000000</v>
       </c>
       <c r="T37">
+        <v>11127000000</v>
+      </c>
+      <c r="U37">
         <v>11606000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>13229000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>14782000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>15354000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>15363000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>16027000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>18982000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>19319000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>20777000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>20324000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>20698000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>20902000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>20312000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>18849000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>19737000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>20296000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>20850000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>20706000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>21123000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>21215000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>10092000000</v>
       </c>
     </row>
